--- a/Factor_Data/China.xlsx
+++ b/Factor_Data/China.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingzheli/Documents/QBUS5010/Factor_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5622CEA-9CE9-7249-AEFD-E48E77E09B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7E2705-233D-884B-9398-8AD37ECB02D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -12897,7 +12897,7 @@
   <dimension ref="A1:AH503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
